--- a/misBitacoras/Bitacora-Palazzo-Marcio-Enero-2025.xlsx
+++ b/misBitacoras/Bitacora-Palazzo-Marcio-Enero-2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PalazzoM\OneDrive - Unisys\Desktop\bitacora\misBitacoras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E4CEB2-102D-4069-8C1C-7B4FC27EDD15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC218847-60C9-4053-BDFA-81F058B30CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="606" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Bitacora!$F$53:$F$155</definedName>
     <definedName name="g">Bitacora!$J:$J</definedName>
   </definedNames>
-  <calcPr calcId="191029" fullCalcOnLoad="1" fullPrecision="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -46,276 +46,294 @@
       <text>
         <r>
           <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
-            <b/>
-            <color indexed="81"/>
-            <sz val="8"/>
           </rPr>
-          <t xml:space="preserve">Clasificación:_x000A_</t>
+          <t xml:space="preserve">Clasificación:
+</t>
         </r>
         <r>
           <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
-            <color indexed="81"/>
-            <sz val="8"/>
           </rPr>
-          <t xml:space="preserve">_x000A_·   </t>
+          <t xml:space="preserve">
+·   </t>
         </r>
         <r>
           <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
-            <b/>
-            <color indexed="81"/>
-            <sz val="8"/>
           </rPr>
           <t>Nuevos Desarrollos (DE</t>
         </r>
         <r>
           <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
-            <color indexed="81"/>
-            <sz val="8"/>
           </rPr>
-          <t>)= Representa a las tareas de nuevos desarrollos y modificaciones a funcionalidades existentes, interfases y modificaciones por normativa._x000A_                    *</t>
+          <t>)= Representa a las tareas de nuevos desarrollos y modificaciones a funcionalidades existentes, interfases y modificaciones por normativa.
+                    *</t>
         </r>
         <r>
           <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
-            <b/>
-            <color indexed="81"/>
-            <sz val="8"/>
           </rPr>
           <t xml:space="preserve"> DE- (NORM</t>
         </r>
         <r>
           <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
-            <color indexed="81"/>
-            <sz val="8"/>
           </rPr>
-          <t xml:space="preserve">): incluye las tareas de desarrollo (nuevo) que han sido solicitadas producto de cambios en el marco regulatorio ya sea por el Banco Central, AFIP y cualquier otra autoridad regulatoria Nacional, Provincial o Municipal._x000A_                    * </t>
+          <t xml:space="preserve">): incluye las tareas de desarrollo (nuevo) que han sido solicitadas producto de cambios en el marco regulatorio ya sea por el Banco Central, AFIP y cualquier otra autoridad regulatoria Nacional, Provincial o Municipal.
+                    * </t>
         </r>
         <r>
           <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
-            <b/>
-            <color indexed="81"/>
-            <sz val="8"/>
           </rPr>
           <t>DE- (APL)</t>
         </r>
         <r>
           <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
-            <color indexed="81"/>
-            <sz val="8"/>
           </rPr>
-          <t xml:space="preserve">:incluye las tareas de desarrollo (nuevo) que han sido solicitadas  producto de cambios funcionales, operativos o procedimentales. _x000A_---------------------------------------------------------------------------------------------------------------_x000A_·   </t>
+          <t xml:space="preserve">:incluye las tareas de desarrollo (nuevo) que han sido solicitadas  producto de cambios funcionales, operativos o procedimentales. 
+---------------------------------------------------------------------------------------------------------------
+·   </t>
         </r>
         <r>
           <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
-            <b/>
-            <color indexed="81"/>
-            <sz val="8"/>
           </rPr>
           <t>Mantenimiento Correctivo (MC)</t>
         </r>
         <r>
           <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
-            <color indexed="81"/>
-            <sz val="8"/>
           </rPr>
-          <t xml:space="preserve">= Representa a las tareas de mantenimiento por tratamiento de vicios ocultos, rebasamiento de tablas e indices y tratamiento de errores no detectados. _x000A_                    * </t>
+          <t xml:space="preserve">= Representa a las tareas de mantenimiento por tratamiento de vicios ocultos, rebasamiento de tablas e indices y tratamiento de errores no detectados. 
+                    * </t>
         </r>
         <r>
           <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
-            <b/>
-            <color indexed="81"/>
-            <sz val="8"/>
           </rPr>
           <t>MC- (NORM)</t>
         </r>
         <r>
           <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
-            <color indexed="81"/>
-            <sz val="8"/>
           </rPr>
-          <t>: incluye las tareas de desarrollo por correcciones, a funcionalidades correspondientes al  marco regulatorio ya sea por el Banco Central, AFIP y cualquier otra autoridad regulatoria Nacional, Provincial o Municipal._x000A_                    *</t>
+          <t>: incluye las tareas de desarrollo por correcciones, a funcionalidades correspondientes al  marco regulatorio ya sea por el Banco Central, AFIP y cualquier otra autoridad regulatoria Nacional, Provincial o Municipal.
+                    *</t>
         </r>
         <r>
           <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
-            <b/>
-            <color indexed="81"/>
-            <sz val="8"/>
           </rPr>
           <t xml:space="preserve"> MC- (APL)</t>
         </r>
         <r>
           <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
-            <color indexed="81"/>
-            <sz val="8"/>
           </rPr>
-          <t xml:space="preserve">:incluye las tareas de desarrollo  por correcciones  correspondientes a funcionalidades no normativas. _x000A_---------------------------------------------------------------------------------------------------------------_x000A_·   </t>
+          <t xml:space="preserve">:incluye las tareas de desarrollo  por correcciones  correspondientes a funcionalidades no normativas. 
+---------------------------------------------------------------------------------------------------------------
+·   </t>
         </r>
         <r>
           <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
-            <b/>
-            <color indexed="81"/>
-            <sz val="8"/>
           </rPr>
           <t>Asistencia al Banco (ASIST)</t>
         </r>
         <r>
           <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
-            <color indexed="81"/>
-            <sz val="8"/>
           </rPr>
-          <t xml:space="preserve"> = Representa a  las tareas soporte técnico, acompañamiento o soporte a problemas de Producción, asistencia a Pruebas del Banco consultas, investigación de problemas y tareas técnicas en general que no implican Desarrollos u Corrección de errores y que están orientadas a trabajar con el Banco. _x000A_                    </t>
+          <t xml:space="preserve"> = Representa a  las tareas soporte técnico, acompañamiento o soporte a problemas de Producción, asistencia a Pruebas del Banco consultas, investigación de problemas y tareas técnicas en general que no implican Desarrollos u Corrección de errores y que están orientadas a trabajar con el Banco. 
+                    </t>
         </r>
         <r>
           <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
-            <b/>
-            <color indexed="81"/>
-            <sz val="8"/>
           </rPr>
           <t xml:space="preserve">  *ASIST- (PROD): </t>
         </r>
         <r>
           <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
-            <color indexed="81"/>
-            <sz val="8"/>
           </rPr>
-          <t xml:space="preserve">asistencia a Errores de Producción por errores de Proceso, datos, procesos especiales, archivos eventuales, feriados etc. Análisis de las problemas sin determinar. NO INCLUYE errores de programas (esos van en MC). _x000A_                      </t>
+          <t xml:space="preserve">asistencia a Errores de Producción por errores de Proceso, datos, procesos especiales, archivos eventuales, feriados etc. Análisis de las problemas sin determinar. NO INCLUYE errores de programas (esos van en MC). 
+                      </t>
         </r>
         <r>
           <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
-            <b/>
-            <color indexed="81"/>
-            <sz val="8"/>
           </rPr>
           <t>* ASIST-(TEST)</t>
         </r>
         <r>
           <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
-            <color indexed="81"/>
-            <sz val="8"/>
           </rPr>
-          <t xml:space="preserve"> :asistencia a la aplicación de desarrollos entregados, pruebas, parametría. Problemas de Versión. Ejecución de Pruebas. _x000A_                   </t>
+          <t xml:space="preserve"> :asistencia a la aplicación de desarrollos entregados, pruebas, parametría. Problemas de Versión. Ejecución de Pruebas. 
+                   </t>
         </r>
         <r>
           <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
-            <b/>
-            <color indexed="81"/>
-            <sz val="8"/>
           </rPr>
           <t xml:space="preserve">   * ASIST-(REQ) </t>
         </r>
         <r>
           <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
-            <color indexed="81"/>
-            <sz val="8"/>
           </rPr>
-          <t xml:space="preserve">: soporte a la diseño de nuevas funcionalidades (normativas o internas) para su definición como Requerimiento._x000A_                     </t>
+          <t xml:space="preserve">: soporte a la diseño de nuevas funcionalidades (normativas o internas) para su definición como Requerimiento.
+                     </t>
         </r>
         <r>
           <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
-            <b/>
-            <color indexed="81"/>
-            <sz val="8"/>
           </rPr>
           <t xml:space="preserve"> * ASIST-(TEC) :</t>
         </r>
         <r>
           <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
-            <color indexed="81"/>
-            <sz val="8"/>
           </rPr>
-          <t xml:space="preserve"> soporte a temas de índole técnica. (problemas de generación, armado de base para desarrollo, backups, etc) (el armado de base para pruebas del Banco iria en ASIST – TEST). _x000A__x000A_----------------------------------------------------------------------------------------------------------------_x000A_.   </t>
+          <t xml:space="preserve"> soporte a temas de índole técnica. (problemas de generación, armado de base para desarrollo, backups, etc) (el armado de base para pruebas del Banco iria en ASIST – TEST). 
+----------------------------------------------------------------------------------------------------------------
+.   </t>
         </r>
         <r>
           <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
-            <b/>
-            <color indexed="81"/>
-            <sz val="8"/>
           </rPr>
           <t xml:space="preserve">Otros (OT) </t>
         </r>
         <r>
           <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
-            <color indexed="81"/>
-            <sz val="8"/>
           </rPr>
-          <t xml:space="preserve">= Representa a otras tareas, que por su condición no pueden ser encuadradas en ninguna de las anteriores (por ejemplo vacaciones del personal, licencias por enfermedad, capacitación, etc.)._x000A__x000A_----------------------------------------------------------------------------------------------------------------_x000A_</t>
+          <t xml:space="preserve">= Representa a otras tareas, que por su condición no pueden ser encuadradas en ninguna de las anteriores (por ejemplo vacaciones del personal, licencias por enfermedad, capacitación, etc.).
+----------------------------------------------------------------------------------------------------------------
+</t>
         </r>
         <r>
           <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
-            <color indexed="81"/>
-            <sz val="8"/>
           </rPr>
           <t xml:space="preserve">. </t>
         </r>
         <r>
           <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
-            <b/>
-            <color indexed="81"/>
-            <sz val="8"/>
           </rPr>
           <t>Migración (MI)</t>
         </r>
         <r>
           <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
-            <color indexed="81"/>
-            <sz val="8"/>
           </rPr>
           <t xml:space="preserve"> = Representa a las tareas de Migración de Coboles para MCP, Nivelación de Coboles para MCP y a cualquier modificación de un cobol en ambiente MCP por Incidente o nuevo desarrollo .</t>
         </r>
@@ -326,7 +344,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
   <si>
     <t>Día</t>
   </si>
@@ -362,43 +380,6 @@
   </si>
   <si>
     <t>Marcio Palazzo</t>
-  </si>
-  <si>
-    <t>UN</t>
-  </si>
-  <si>
-    <t>DE-APLIC</t>
-  </si>
-  <si>
-    <t>Prueba</t>
-  </si>
-  <si>
-    <t>Clientes</t>
-  </si>
-  <si>
-    <t>pruebaa</t>
-  </si>
-  <si>
-    <t>NB</t>
-  </si>
-  <si>
-    <t>ASIST-PROD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tarea dia 14
-</t>
-  </si>
-  <si>
-    <t>xdd</t>
-  </si>
-  <si>
-    <t>Cuentas Vista (CC y CA)</t>
-  </si>
-  <si>
-    <t>river</t>
-  </si>
-  <si>
-    <t>tarea dia 23</t>
   </si>
   <si>
     <t>Febrero</t>
@@ -537,10 +518,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="hh:mm:ss"/>
-  </numFmts>
-  <fonts count="7">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -578,6 +556,19 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -949,193 +940,184 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" applyFont="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" applyFill="1" borderId="4" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="5" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="3" applyFill="1" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="3" applyFill="1" borderId="5" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" applyFill="1" borderId="7" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" applyFill="1" borderId="8" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" applyFill="1" borderId="9" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="0" fillId="0" borderId="3" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="46" applyNumberFormat="1" fontId="0" fillId="0" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="3" applyFill="1" borderId="11" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="46" applyNumberFormat="1" fontId="0" fillId="0" borderId="5" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="11" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="5" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="0" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="6" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="46" applyNumberFormat="1" fontId="0" fillId="0" borderId="13" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="14" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="3" applyFill="1" borderId="13" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="0" borderId="17" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="0" borderId="17" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="3" applyFill="1" borderId="18" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="22" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="3" applyFill="1" borderId="22" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="46" applyNumberFormat="1" fontId="0" fillId="0" borderId="22" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="21" applyNumberFormat="1" fontId="0" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="0" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" applyFont="1" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" applyBorder="1" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1448,27 +1430,27 @@
   <dimension ref="A1:L622"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7265625" customWidth="1" style="6"/>
-    <col min="2" max="2" width="11.1796875" customWidth="1" style="6"/>
-    <col min="3" max="3" bestFit="1" width="6.54296875" customWidth="1" style="6"/>
-    <col min="4" max="4" bestFit="1" width="9.1796875" customWidth="1" style="6"/>
-    <col min="5" max="5" bestFit="1" width="16.81640625" customWidth="1" style="6"/>
-    <col min="6" max="6" width="7.54296875" customWidth="1" style="6"/>
-    <col min="7" max="7" width="12.453125" customWidth="1" style="23"/>
-    <col min="8" max="8" bestFit="1" width="40.1796875" customWidth="1" style="6"/>
-    <col min="9" max="9" width="23.7265625" customWidth="1" style="6"/>
-    <col min="10" max="10" width="29" customWidth="1" style="6"/>
-    <col min="11" max="11" hidden="1" width="16" customWidth="1" style="11"/>
-    <col min="12" max="17" width="11.453125" customWidth="1" style="6"/>
-    <col min="18" max="16384" width="11.453125" customWidth="1" style="6"/>
+    <col min="1" max="1" width="3.7265625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="6.54296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.54296875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" style="23" customWidth="1"/>
+    <col min="8" max="8" width="40.1796875" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.7265625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="29" style="6" customWidth="1"/>
+    <col min="11" max="11" width="16" style="11" hidden="1" customWidth="1"/>
+    <col min="12" max="18" width="11.453125" style="6" customWidth="1"/>
+    <col min="19" max="16384" width="11.453125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -1501,295 +1483,115 @@
       </c>
       <c r="K1" s="6"/>
     </row>
-    <row r="2">
-      <c r="A2" s="53">
-        <v>6</v>
-      </c>
-      <c r="B2" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="53">
-        <v>2025</v>
-      </c>
-      <c r="D2" s="54">
-        <v>0.09027777777777778</v>
-      </c>
-      <c r="E2" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="53" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="53">
-        <v>7</v>
-      </c>
-      <c r="B3" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="53">
-        <v>2025</v>
-      </c>
-      <c r="D3" s="54">
-        <v>0.09027777777777778</v>
-      </c>
-      <c r="E3" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="53" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="53">
-        <v>8</v>
-      </c>
-      <c r="B4" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="53">
-        <v>2025</v>
-      </c>
-      <c r="D4" s="54">
-        <v>0.09027777777777778</v>
-      </c>
-      <c r="E4" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="53" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="53">
-        <v>9</v>
-      </c>
-      <c r="B5" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="53">
-        <v>2025</v>
-      </c>
-      <c r="D5" s="54">
-        <v>0.09027777777777778</v>
-      </c>
-      <c r="E5" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="53" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="53">
-        <v>10</v>
-      </c>
-      <c r="B6" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="53">
-        <v>2025</v>
-      </c>
-      <c r="D6" s="54">
-        <v>0.09027777777777778</v>
-      </c>
-      <c r="E6" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="53" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" ht="37.5">
-      <c r="A7" s="53">
-        <v>14</v>
-      </c>
-      <c r="B7" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="53">
-        <v>2025</v>
-      </c>
-      <c r="D7" s="54">
-        <v>0.13194444444444445</v>
-      </c>
-      <c r="E7" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="53" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="53">
-        <v>16</v>
-      </c>
-      <c r="B8" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="53">
-        <v>2025</v>
-      </c>
-      <c r="D8" s="54">
-        <v>0.041666666666666664</v>
-      </c>
-      <c r="E8" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="53" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="53">
-        <v>22</v>
-      </c>
-      <c r="B9" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="53">
-        <v>2025</v>
-      </c>
-      <c r="D9" s="54">
-        <v>0.041666666666666664</v>
-      </c>
-      <c r="E9" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="55" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="53" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="56">
-        <v>23</v>
-      </c>
-      <c r="B10" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="56">
-        <v>2025</v>
-      </c>
-      <c r="D10" s="57">
-        <v>0.041666666666666664</v>
-      </c>
-      <c r="E10" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="56" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="53"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="53"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="53"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="53"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="53"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+    </row>
+    <row r="10" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+      <c r="A10" s="53"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="53"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="53"/>
       <c r="B11" s="53"/>
       <c r="C11" s="53"/>
@@ -1801,7 +1603,7 @@
       <c r="I11" s="53"/>
       <c r="J11" s="53"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="53"/>
       <c r="B12" s="53"/>
       <c r="C12" s="53"/>
@@ -1813,7 +1615,7 @@
       <c r="I12" s="53"/>
       <c r="J12" s="53"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="53"/>
       <c r="B13" s="53"/>
       <c r="C13" s="53"/>
@@ -1825,7 +1627,7 @@
       <c r="I13" s="53"/>
       <c r="J13" s="53"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="53"/>
       <c r="B14" s="53"/>
       <c r="C14" s="53"/>
@@ -1837,7 +1639,7 @@
       <c r="I14" s="53"/>
       <c r="J14" s="53"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="53"/>
       <c r="B15" s="53"/>
       <c r="C15" s="53"/>
@@ -1849,7 +1651,7 @@
       <c r="I15" s="53"/>
       <c r="J15" s="53"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="53"/>
       <c r="B16" s="53"/>
       <c r="C16" s="53"/>
@@ -1861,7 +1663,7 @@
       <c r="I16" s="53"/>
       <c r="J16" s="53"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="53"/>
       <c r="B17" s="53"/>
       <c r="C17" s="53"/>
@@ -1873,7 +1675,7 @@
       <c r="I17" s="53"/>
       <c r="J17" s="53"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="53"/>
       <c r="B18" s="53"/>
       <c r="C18" s="53"/>
@@ -1885,7 +1687,7 @@
       <c r="I18" s="53"/>
       <c r="J18" s="53"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="53"/>
       <c r="B19" s="53"/>
       <c r="C19" s="53"/>
@@ -1897,7 +1699,7 @@
       <c r="I19" s="53"/>
       <c r="J19" s="53"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="53"/>
       <c r="B20" s="53"/>
       <c r="C20" s="53"/>
@@ -1909,7 +1711,7 @@
       <c r="I20" s="53"/>
       <c r="J20" s="53"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="53"/>
       <c r="B21" s="53"/>
       <c r="C21" s="53"/>
@@ -1921,7 +1723,7 @@
       <c r="I21" s="53"/>
       <c r="J21" s="53"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="53"/>
       <c r="B22" s="53"/>
       <c r="C22" s="53"/>
@@ -1933,7 +1735,7 @@
       <c r="I22" s="53"/>
       <c r="J22" s="53"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="53"/>
       <c r="B23" s="53"/>
       <c r="C23" s="53"/>
@@ -1945,7 +1747,7 @@
       <c r="I23" s="53"/>
       <c r="J23" s="53"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="53"/>
       <c r="B24" s="53"/>
       <c r="C24" s="53"/>
@@ -1957,7 +1759,7 @@
       <c r="I24" s="53"/>
       <c r="J24" s="53"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="53"/>
       <c r="B25" s="53"/>
       <c r="C25" s="53"/>
@@ -1969,7 +1771,7 @@
       <c r="I25" s="53"/>
       <c r="J25" s="53"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="53"/>
       <c r="B26" s="53"/>
       <c r="C26" s="53"/>
@@ -1981,7 +1783,7 @@
       <c r="I26" s="53"/>
       <c r="J26" s="53"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="53"/>
       <c r="B27" s="53"/>
       <c r="C27" s="53"/>
@@ -1993,7 +1795,7 @@
       <c r="I27" s="53"/>
       <c r="J27" s="53"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="53"/>
       <c r="B28" s="53"/>
       <c r="C28" s="53"/>
@@ -2005,7 +1807,7 @@
       <c r="I28" s="53"/>
       <c r="J28" s="53"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="53"/>
       <c r="B29" s="53"/>
       <c r="C29" s="53"/>
@@ -2017,7 +1819,7 @@
       <c r="I29" s="53"/>
       <c r="J29" s="53"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="53"/>
       <c r="B30" s="53"/>
       <c r="C30" s="53"/>
@@ -2029,7 +1831,7 @@
       <c r="I30" s="53"/>
       <c r="J30" s="53"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="53"/>
       <c r="B31" s="53"/>
       <c r="C31" s="53"/>
@@ -2041,7 +1843,7 @@
       <c r="I31" s="53"/>
       <c r="J31" s="53"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="53"/>
       <c r="B32" s="53"/>
       <c r="C32" s="53"/>
@@ -2053,7 +1855,7 @@
       <c r="I32" s="53"/>
       <c r="J32" s="53"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="53"/>
       <c r="B33" s="53"/>
       <c r="C33" s="53"/>
@@ -2065,7 +1867,7 @@
       <c r="I33" s="53"/>
       <c r="J33" s="53"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="53"/>
       <c r="B34" s="53"/>
       <c r="C34" s="53"/>
@@ -2077,7 +1879,7 @@
       <c r="I34" s="53"/>
       <c r="J34" s="53"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="53"/>
       <c r="B35" s="53"/>
       <c r="C35" s="53"/>
@@ -2089,7 +1891,7 @@
       <c r="I35" s="53"/>
       <c r="J35" s="53"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="53"/>
       <c r="B36" s="53"/>
       <c r="C36" s="53"/>
@@ -2101,7 +1903,7 @@
       <c r="I36" s="53"/>
       <c r="J36" s="53"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="53"/>
       <c r="B37" s="53"/>
       <c r="C37" s="53"/>
@@ -2113,7 +1915,7 @@
       <c r="I37" s="53"/>
       <c r="J37" s="53"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="53"/>
       <c r="B38" s="53"/>
       <c r="C38" s="53"/>
@@ -2125,7 +1927,7 @@
       <c r="I38" s="53"/>
       <c r="J38" s="53"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="53"/>
       <c r="B39" s="53"/>
       <c r="C39" s="53"/>
@@ -2137,7 +1939,7 @@
       <c r="I39" s="53"/>
       <c r="J39" s="53"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="53"/>
       <c r="B40" s="53"/>
       <c r="C40" s="53"/>
@@ -2149,7 +1951,7 @@
       <c r="I40" s="53"/>
       <c r="J40" s="53"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="53"/>
       <c r="B41" s="53"/>
       <c r="C41" s="53"/>
@@ -2161,7 +1963,7 @@
       <c r="I41" s="53"/>
       <c r="J41" s="53"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="53"/>
       <c r="B42" s="53"/>
       <c r="C42" s="53"/>
@@ -2173,7 +1975,7 @@
       <c r="I42" s="53"/>
       <c r="J42" s="53"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="53"/>
       <c r="B43" s="53"/>
       <c r="C43" s="53"/>
@@ -2185,7 +1987,7 @@
       <c r="I43" s="53"/>
       <c r="J43" s="53"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="53"/>
       <c r="B44" s="53"/>
       <c r="C44" s="53"/>
@@ -2197,7 +1999,7 @@
       <c r="I44" s="53"/>
       <c r="J44" s="53"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="53"/>
       <c r="B45" s="53"/>
       <c r="C45" s="53"/>
@@ -2209,7 +2011,7 @@
       <c r="I45" s="53"/>
       <c r="J45" s="53"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="53"/>
       <c r="B46" s="53"/>
       <c r="C46" s="53"/>
@@ -2221,7 +2023,7 @@
       <c r="I46" s="53"/>
       <c r="J46" s="53"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="53"/>
       <c r="B47" s="53"/>
       <c r="C47" s="53"/>
@@ -2233,7 +2035,7 @@
       <c r="I47" s="53"/>
       <c r="J47" s="53"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="53"/>
       <c r="B48" s="53"/>
       <c r="C48" s="53"/>
@@ -2245,7 +2047,7 @@
       <c r="I48" s="53"/>
       <c r="J48" s="53"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="53"/>
       <c r="B49" s="53"/>
       <c r="C49" s="53"/>
@@ -2257,7 +2059,7 @@
       <c r="I49" s="53"/>
       <c r="J49" s="53"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="53"/>
       <c r="B50" s="53"/>
       <c r="C50" s="53"/>
@@ -2269,7 +2071,7 @@
       <c r="I50" s="53"/>
       <c r="J50" s="53"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="53"/>
       <c r="B51" s="53"/>
       <c r="C51" s="53"/>
@@ -2281,7 +2083,7 @@
       <c r="I51" s="53"/>
       <c r="J51" s="53"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="53"/>
       <c r="B52" s="53"/>
       <c r="C52" s="53"/>
@@ -2293,7 +2095,7 @@
       <c r="I52" s="53"/>
       <c r="J52" s="53"/>
     </row>
-    <row r="53" ht="13">
+    <row r="53" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A53" s="15"/>
       <c r="B53" s="16"/>
       <c r="C53" s="16"/>
@@ -2306,7 +2108,7 @@
       <c r="J53" s="1"/>
       <c r="K53" s="6"/>
     </row>
-    <row r="54" ht="13">
+    <row r="54" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A54" s="15"/>
       <c r="B54" s="16"/>
       <c r="C54" s="16"/>
@@ -2318,7 +2120,7 @@
       <c r="I54" s="9"/>
       <c r="J54" s="1"/>
     </row>
-    <row r="55" ht="13">
+    <row r="55" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A55" s="15"/>
       <c r="B55" s="16"/>
       <c r="C55" s="16"/>
@@ -2330,7 +2132,7 @@
       <c r="I55" s="9"/>
       <c r="J55" s="1"/>
     </row>
-    <row r="56" ht="13">
+    <row r="56" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A56" s="15"/>
       <c r="B56" s="16"/>
       <c r="C56" s="16"/>
@@ -2342,11 +2144,11 @@
       <c r="I56" s="9"/>
       <c r="J56" s="1"/>
       <c r="K56" s="18" t="str">
-        <f ref="K56:K72" t="array">$J$215:$J$231</f>
+        <f t="array" ref="K56:K72">$J$215:$J$231</f>
         <v>Raul Daszkal</v>
       </c>
     </row>
-    <row r="57" ht="13">
+    <row r="57" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A57" s="15"/>
       <c r="B57" s="16"/>
       <c r="C57" s="16"/>
@@ -2361,7 +2163,7 @@
         <v>Santiago Lanzi</v>
       </c>
     </row>
-    <row r="58" ht="13">
+    <row r="58" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A58" s="15"/>
       <c r="B58" s="16"/>
       <c r="C58" s="16"/>
@@ -2376,7 +2178,7 @@
         <v>Laura Ozcoidi</v>
       </c>
     </row>
-    <row r="59" ht="13">
+    <row r="59" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A59" s="15"/>
       <c r="B59" s="16"/>
       <c r="C59" s="16"/>
@@ -2391,7 +2193,7 @@
         <v>Gabriela Piro</v>
       </c>
     </row>
-    <row r="60" ht="14.5" customHeight="1">
+    <row r="60" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="15"/>
       <c r="B60" s="16"/>
       <c r="C60" s="16"/>
@@ -2406,7 +2208,7 @@
         <v>Fernando Sottano</v>
       </c>
     </row>
-    <row r="61" ht="13">
+    <row r="61" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A61" s="15"/>
       <c r="B61" s="16"/>
       <c r="C61" s="16"/>
@@ -2421,7 +2223,7 @@
         <v>Bernardo Petriz</v>
       </c>
     </row>
-    <row r="62" ht="14.15" customHeight="1">
+    <row r="62" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="15"/>
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
@@ -2436,7 +2238,7 @@
         <v>Corina Fitzpatrick</v>
       </c>
     </row>
-    <row r="63" ht="13">
+    <row r="63" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A63" s="15"/>
       <c r="B63" s="16"/>
       <c r="C63" s="16"/>
@@ -2451,7 +2253,7 @@
         <v>Roberto Lo Bue</v>
       </c>
     </row>
-    <row r="64" ht="13">
+    <row r="64" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A64" s="15"/>
       <c r="B64" s="16"/>
       <c r="C64" s="16"/>
@@ -2466,7 +2268,7 @@
         <v>Ricardo Cavallin</v>
       </c>
     </row>
-    <row r="65" ht="13">
+    <row r="65" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A65" s="15"/>
       <c r="B65" s="16"/>
       <c r="C65" s="16"/>
@@ -2481,7 +2283,7 @@
         <v>Ariel Cvjetkovic</v>
       </c>
     </row>
-    <row r="66" ht="13">
+    <row r="66" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A66" s="15"/>
       <c r="B66" s="16"/>
       <c r="C66" s="16"/>
@@ -2496,7 +2298,7 @@
         <v>Carlos Cernigoi</v>
       </c>
     </row>
-    <row r="67" ht="13">
+    <row r="67" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A67" s="15"/>
       <c r="B67" s="16"/>
       <c r="C67" s="16"/>
@@ -2511,7 +2313,7 @@
         <v>Marcia Garcia</v>
       </c>
     </row>
-    <row r="68" ht="13">
+    <row r="68" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A68" s="15"/>
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
@@ -2526,7 +2328,7 @@
         <v>Mariel Grimaldi</v>
       </c>
     </row>
-    <row r="69" ht="14.15" customHeight="1">
+    <row r="69" spans="1:11" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="15"/>
       <c r="B69" s="16"/>
       <c r="C69" s="16"/>
@@ -2541,7 +2343,7 @@
         <v>Matías Strappazzon</v>
       </c>
     </row>
-    <row r="70" ht="16.5" customHeight="1">
+    <row r="70" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="15"/>
       <c r="B70" s="16"/>
       <c r="C70" s="16"/>
@@ -2556,7 +2358,7 @@
         <v>Luciano Carreras</v>
       </c>
     </row>
-    <row r="71" ht="16.5" customHeight="1">
+    <row r="71" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="15"/>
       <c r="B71" s="16"/>
       <c r="C71" s="16"/>
@@ -2571,7 +2373,7 @@
         <v>Barbara Jorquera</v>
       </c>
     </row>
-    <row r="72" ht="13">
+    <row r="72" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A72" s="15"/>
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
@@ -2586,7 +2388,7 @@
         <v>Pablo Jimenez</v>
       </c>
     </row>
-    <row r="73" ht="13">
+    <row r="73" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A73" s="15"/>
       <c r="B73" s="16"/>
       <c r="C73" s="16"/>
@@ -2601,7 +2403,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" ht="13">
+    <row r="74" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A74" s="15"/>
       <c r="B74" s="16"/>
       <c r="C74" s="16"/>
@@ -2613,7 +2415,7 @@
       <c r="I74" s="9"/>
       <c r="J74" s="1"/>
     </row>
-    <row r="75" ht="13">
+    <row r="75" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A75" s="15"/>
       <c r="B75" s="16"/>
       <c r="C75" s="16"/>
@@ -2625,11 +2427,11 @@
       <c r="I75" s="9"/>
       <c r="J75" s="1"/>
     </row>
-    <row r="76" ht="13">
+    <row r="76" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="I76" s="9"/>
       <c r="J76" s="1"/>
     </row>
-    <row r="77" ht="13">
+    <row r="77" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A77" s="15"/>
       <c r="B77" s="16"/>
       <c r="C77" s="16"/>
@@ -2641,7 +2443,7 @@
       <c r="I77" s="9"/>
       <c r="J77" s="1"/>
     </row>
-    <row r="78" ht="13">
+    <row r="78" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A78" s="15"/>
       <c r="B78" s="16"/>
       <c r="C78" s="16"/>
@@ -2653,7 +2455,7 @@
       <c r="I78" s="9"/>
       <c r="J78" s="1"/>
     </row>
-    <row r="79" ht="13">
+    <row r="79" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A79" s="15"/>
       <c r="B79" s="16"/>
       <c r="C79" s="16"/>
@@ -2665,7 +2467,7 @@
       <c r="I79" s="9"/>
       <c r="J79" s="1"/>
     </row>
-    <row r="80" ht="13">
+    <row r="80" spans="1:11" ht="13" x14ac:dyDescent="0.25">
       <c r="A80" s="15"/>
       <c r="B80" s="16"/>
       <c r="C80" s="16"/>
@@ -2677,7 +2479,7 @@
       <c r="I80" s="9"/>
       <c r="J80" s="1"/>
     </row>
-    <row r="81" ht="13">
+    <row r="81" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A81" s="15"/>
       <c r="B81" s="16"/>
       <c r="C81" s="16"/>
@@ -2689,7 +2491,7 @@
       <c r="I81" s="9"/>
       <c r="J81" s="1"/>
     </row>
-    <row r="82" ht="13">
+    <row r="82" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A82" s="15"/>
       <c r="B82" s="16"/>
       <c r="C82" s="16"/>
@@ -2701,7 +2503,7 @@
       <c r="I82" s="9"/>
       <c r="J82" s="1"/>
     </row>
-    <row r="83" ht="13">
+    <row r="83" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A83" s="15"/>
       <c r="B83" s="16"/>
       <c r="C83" s="16"/>
@@ -2713,7 +2515,7 @@
       <c r="I83" s="9"/>
       <c r="J83" s="1"/>
     </row>
-    <row r="84" ht="13">
+    <row r="84" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A84" s="15"/>
       <c r="B84" s="16"/>
       <c r="C84" s="16"/>
@@ -2725,7 +2527,7 @@
       <c r="I84" s="9"/>
       <c r="J84" s="1"/>
     </row>
-    <row r="85" ht="13">
+    <row r="85" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="B85" s="16"/>
       <c r="C85" s="16"/>
       <c r="D85" s="17"/>
@@ -2736,7 +2538,7 @@
       <c r="I85" s="9"/>
       <c r="J85" s="25"/>
     </row>
-    <row r="86" ht="13">
+    <row r="86" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="B86" s="16"/>
       <c r="C86" s="16"/>
       <c r="D86" s="17"/>
@@ -2747,7 +2549,7 @@
       <c r="I86" s="9"/>
       <c r="J86" s="25"/>
     </row>
-    <row r="87" ht="13">
+    <row r="87" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="B87" s="16"/>
       <c r="C87" s="16"/>
       <c r="D87" s="17"/>
@@ -2758,7 +2560,7 @@
       <c r="I87" s="9"/>
       <c r="J87" s="1"/>
     </row>
-    <row r="88" ht="13">
+    <row r="88" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="B88" s="16"/>
       <c r="C88" s="16"/>
       <c r="D88" s="17"/>
@@ -2769,7 +2571,7 @@
       <c r="I88" s="9"/>
       <c r="J88" s="1"/>
     </row>
-    <row r="89" ht="13">
+    <row r="89" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="B89" s="16"/>
       <c r="C89" s="16"/>
       <c r="D89" s="17"/>
@@ -2780,7 +2582,7 @@
       <c r="I89" s="9"/>
       <c r="J89" s="1"/>
     </row>
-    <row r="90" ht="13">
+    <row r="90" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="B90" s="16"/>
       <c r="C90" s="16"/>
       <c r="D90" s="17"/>
@@ -2791,7 +2593,7 @@
       <c r="I90" s="9"/>
       <c r="J90" s="1"/>
     </row>
-    <row r="91" ht="13">
+    <row r="91" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A91" s="15"/>
       <c r="B91" s="16"/>
       <c r="C91" s="16"/>
@@ -2803,7 +2605,7 @@
       <c r="I91" s="9"/>
       <c r="J91" s="1"/>
     </row>
-    <row r="92" ht="13">
+    <row r="92" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A92" s="15"/>
       <c r="B92" s="16"/>
       <c r="C92" s="16"/>
@@ -2815,7 +2617,7 @@
       <c r="I92" s="9"/>
       <c r="J92" s="1"/>
     </row>
-    <row r="93" ht="13">
+    <row r="93" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A93" s="15"/>
       <c r="B93" s="16"/>
       <c r="C93" s="16"/>
@@ -2827,7 +2629,7 @@
       <c r="I93" s="9"/>
       <c r="J93" s="1"/>
     </row>
-    <row r="94" ht="13">
+    <row r="94" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A94" s="15"/>
       <c r="B94" s="16"/>
       <c r="C94" s="16"/>
@@ -2839,7 +2641,7 @@
       <c r="I94" s="9"/>
       <c r="J94" s="1"/>
     </row>
-    <row r="95" ht="13">
+    <row r="95" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A95" s="15"/>
       <c r="B95" s="16"/>
       <c r="C95" s="16"/>
@@ -2851,7 +2653,7 @@
       <c r="I95" s="9"/>
       <c r="J95" s="1"/>
     </row>
-    <row r="96" ht="13">
+    <row r="96" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A96" s="15"/>
       <c r="B96" s="16"/>
       <c r="C96" s="16"/>
@@ -2863,7 +2665,7 @@
       <c r="I96" s="9"/>
       <c r="J96" s="1"/>
     </row>
-    <row r="97" ht="13">
+    <row r="97" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A97" s="15"/>
       <c r="B97" s="16"/>
       <c r="C97" s="16"/>
@@ -2875,7 +2677,7 @@
       <c r="I97" s="9"/>
       <c r="J97" s="1"/>
     </row>
-    <row r="98" ht="13">
+    <row r="98" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A98" s="15"/>
       <c r="B98" s="16"/>
       <c r="C98" s="16"/>
@@ -2887,7 +2689,7 @@
       <c r="I98" s="9"/>
       <c r="J98" s="25"/>
     </row>
-    <row r="99" ht="13">
+    <row r="99" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A99" s="15"/>
       <c r="B99" s="16"/>
       <c r="C99" s="16"/>
@@ -2899,7 +2701,7 @@
       <c r="I99" s="9"/>
       <c r="J99" s="25"/>
     </row>
-    <row r="100" ht="13">
+    <row r="100" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A100" s="15"/>
       <c r="B100" s="16"/>
       <c r="C100" s="16"/>
@@ -2911,7 +2713,7 @@
       <c r="I100" s="9"/>
       <c r="J100" s="1"/>
     </row>
-    <row r="101" ht="13">
+    <row r="101" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A101" s="15"/>
       <c r="B101" s="16"/>
       <c r="C101" s="16"/>
@@ -2923,7 +2725,7 @@
       <c r="I101" s="9"/>
       <c r="J101" s="1"/>
     </row>
-    <row r="102" ht="13">
+    <row r="102" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A102" s="15"/>
       <c r="B102" s="16"/>
       <c r="C102" s="16"/>
@@ -2935,7 +2737,7 @@
       <c r="I102" s="9"/>
       <c r="J102" s="1"/>
     </row>
-    <row r="103" ht="13">
+    <row r="103" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A103" s="15"/>
       <c r="B103" s="16"/>
       <c r="C103" s="16"/>
@@ -2947,7 +2749,7 @@
       <c r="I103" s="9"/>
       <c r="J103" s="1"/>
     </row>
-    <row r="104" ht="13">
+    <row r="104" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A104" s="15"/>
       <c r="B104" s="16"/>
       <c r="C104" s="16"/>
@@ -2959,7 +2761,7 @@
       <c r="I104" s="9"/>
       <c r="J104" s="1"/>
     </row>
-    <row r="105" ht="13">
+    <row r="105" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A105" s="15"/>
       <c r="B105" s="16"/>
       <c r="C105" s="16"/>
@@ -2971,7 +2773,7 @@
       <c r="I105" s="9"/>
       <c r="J105" s="1"/>
     </row>
-    <row r="106" ht="13">
+    <row r="106" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A106" s="15"/>
       <c r="B106" s="16"/>
       <c r="C106" s="16"/>
@@ -2983,7 +2785,7 @@
       <c r="I106" s="9"/>
       <c r="J106" s="1"/>
     </row>
-    <row r="107" ht="13">
+    <row r="107" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A107" s="15"/>
       <c r="B107" s="16"/>
       <c r="C107" s="16"/>
@@ -2995,7 +2797,7 @@
       <c r="I107" s="9"/>
       <c r="J107" s="1"/>
     </row>
-    <row r="108" ht="13">
+    <row r="108" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A108" s="15"/>
       <c r="B108" s="16"/>
       <c r="C108" s="16"/>
@@ -3007,7 +2809,7 @@
       <c r="I108" s="9"/>
       <c r="J108" s="1"/>
     </row>
-    <row r="109" ht="13">
+    <row r="109" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A109" s="15"/>
       <c r="B109" s="16"/>
       <c r="C109" s="16"/>
@@ -3019,7 +2821,7 @@
       <c r="I109" s="9"/>
       <c r="J109" s="1"/>
     </row>
-    <row r="110" ht="13">
+    <row r="110" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A110" s="15"/>
       <c r="B110" s="16"/>
       <c r="C110" s="16"/>
@@ -3031,7 +2833,7 @@
       <c r="I110" s="9"/>
       <c r="J110" s="1"/>
     </row>
-    <row r="111" ht="13">
+    <row r="111" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A111" s="15"/>
       <c r="B111" s="16"/>
       <c r="C111" s="16"/>
@@ -3043,7 +2845,7 @@
       <c r="I111" s="9"/>
       <c r="J111" s="1"/>
     </row>
-    <row r="112" ht="13">
+    <row r="112" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A112" s="15"/>
       <c r="B112" s="16"/>
       <c r="C112" s="16"/>
@@ -3055,7 +2857,7 @@
       <c r="I112" s="9"/>
       <c r="J112" s="1"/>
     </row>
-    <row r="113" ht="13">
+    <row r="113" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A113" s="15"/>
       <c r="B113" s="16"/>
       <c r="C113" s="16"/>
@@ -3067,7 +2869,7 @@
       <c r="I113" s="9"/>
       <c r="J113" s="1"/>
     </row>
-    <row r="114" ht="13">
+    <row r="114" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A114" s="15"/>
       <c r="B114" s="16"/>
       <c r="C114" s="16"/>
@@ -3079,7 +2881,7 @@
       <c r="I114" s="9"/>
       <c r="J114" s="1"/>
     </row>
-    <row r="115" ht="13">
+    <row r="115" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A115" s="15"/>
       <c r="B115" s="16"/>
       <c r="C115" s="16"/>
@@ -3091,7 +2893,7 @@
       <c r="I115" s="9"/>
       <c r="J115" s="1"/>
     </row>
-    <row r="116" ht="13">
+    <row r="116" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A116" s="15"/>
       <c r="B116" s="16"/>
       <c r="C116" s="16"/>
@@ -3103,7 +2905,7 @@
       <c r="I116" s="9"/>
       <c r="J116" s="1"/>
     </row>
-    <row r="117" ht="13">
+    <row r="117" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A117" s="15"/>
       <c r="B117" s="16"/>
       <c r="C117" s="16"/>
@@ -3115,7 +2917,7 @@
       <c r="I117" s="9"/>
       <c r="J117" s="1"/>
     </row>
-    <row r="118" ht="13">
+    <row r="118" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A118" s="15"/>
       <c r="B118" s="16"/>
       <c r="C118" s="16"/>
@@ -3127,7 +2929,7 @@
       <c r="I118" s="9"/>
       <c r="J118" s="1"/>
     </row>
-    <row r="119" ht="13">
+    <row r="119" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A119" s="15"/>
       <c r="B119" s="16"/>
       <c r="C119" s="16"/>
@@ -3139,7 +2941,7 @@
       <c r="I119" s="9"/>
       <c r="J119" s="1"/>
     </row>
-    <row r="120" ht="13">
+    <row r="120" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A120" s="15"/>
       <c r="B120" s="16"/>
       <c r="C120" s="16"/>
@@ -3151,7 +2953,7 @@
       <c r="I120" s="9"/>
       <c r="J120" s="1"/>
     </row>
-    <row r="121" ht="13">
+    <row r="121" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A121" s="15"/>
       <c r="B121" s="16"/>
       <c r="C121" s="16"/>
@@ -3163,7 +2965,7 @@
       <c r="I121" s="9"/>
       <c r="J121" s="1"/>
     </row>
-    <row r="122" ht="13">
+    <row r="122" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A122" s="15"/>
       <c r="B122" s="16"/>
       <c r="C122" s="16"/>
@@ -3175,7 +2977,7 @@
       <c r="I122" s="9"/>
       <c r="J122" s="1"/>
     </row>
-    <row r="123" ht="13">
+    <row r="123" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A123" s="15"/>
       <c r="B123" s="16"/>
       <c r="C123" s="16"/>
@@ -3187,7 +2989,7 @@
       <c r="I123" s="9"/>
       <c r="J123" s="1"/>
     </row>
-    <row r="124" ht="13">
+    <row r="124" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A124" s="15"/>
       <c r="B124" s="16"/>
       <c r="C124" s="16"/>
@@ -3199,7 +3001,7 @@
       <c r="I124" s="9"/>
       <c r="J124" s="1"/>
     </row>
-    <row r="125" ht="13">
+    <row r="125" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A125" s="15"/>
       <c r="B125" s="16"/>
       <c r="C125" s="16"/>
@@ -3211,7 +3013,7 @@
       <c r="I125" s="9"/>
       <c r="J125" s="1"/>
     </row>
-    <row r="126" ht="13">
+    <row r="126" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A126" s="15"/>
       <c r="B126" s="16"/>
       <c r="C126" s="16"/>
@@ -3223,7 +3025,7 @@
       <c r="I126" s="9"/>
       <c r="J126" s="1"/>
     </row>
-    <row r="127" ht="13">
+    <row r="127" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A127" s="15"/>
       <c r="B127" s="16"/>
       <c r="C127" s="16"/>
@@ -3235,7 +3037,7 @@
       <c r="I127" s="9"/>
       <c r="J127" s="1"/>
     </row>
-    <row r="128" ht="13">
+    <row r="128" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A128" s="15"/>
       <c r="B128" s="16"/>
       <c r="C128" s="16"/>
@@ -3247,7 +3049,7 @@
       <c r="I128" s="9"/>
       <c r="J128" s="1"/>
     </row>
-    <row r="129" ht="13">
+    <row r="129" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A129" s="15"/>
       <c r="B129" s="16"/>
       <c r="C129" s="16"/>
@@ -3259,7 +3061,7 @@
       <c r="I129" s="9"/>
       <c r="J129" s="1"/>
     </row>
-    <row r="130" ht="13">
+    <row r="130" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A130" s="15"/>
       <c r="B130" s="16"/>
       <c r="C130" s="16"/>
@@ -3271,7 +3073,7 @@
       <c r="I130" s="9"/>
       <c r="J130" s="1"/>
     </row>
-    <row r="131" ht="13">
+    <row r="131" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A131" s="15"/>
       <c r="B131" s="16"/>
       <c r="C131" s="16"/>
@@ -3283,7 +3085,7 @@
       <c r="I131" s="9"/>
       <c r="J131" s="1"/>
     </row>
-    <row r="132" ht="13">
+    <row r="132" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A132" s="15"/>
       <c r="B132" s="16"/>
       <c r="C132" s="16"/>
@@ -3295,7 +3097,7 @@
       <c r="I132" s="9"/>
       <c r="J132" s="1"/>
     </row>
-    <row r="133" ht="13">
+    <row r="133" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A133" s="15"/>
       <c r="B133" s="16"/>
       <c r="C133" s="16"/>
@@ -3307,7 +3109,7 @@
       <c r="I133" s="9"/>
       <c r="J133" s="1"/>
     </row>
-    <row r="134" ht="13">
+    <row r="134" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A134" s="15"/>
       <c r="B134" s="16"/>
       <c r="C134" s="16"/>
@@ -3319,7 +3121,7 @@
       <c r="I134" s="9"/>
       <c r="J134" s="1"/>
     </row>
-    <row r="135" ht="13">
+    <row r="135" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A135" s="15"/>
       <c r="B135" s="16"/>
       <c r="C135" s="16"/>
@@ -3331,7 +3133,7 @@
       <c r="I135" s="9"/>
       <c r="J135" s="1"/>
     </row>
-    <row r="136" ht="13">
+    <row r="136" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A136" s="15"/>
       <c r="B136" s="16"/>
       <c r="C136" s="16"/>
@@ -3343,7 +3145,7 @@
       <c r="I136" s="9"/>
       <c r="J136" s="1"/>
     </row>
-    <row r="137" ht="13">
+    <row r="137" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A137" s="15"/>
       <c r="B137" s="16"/>
       <c r="C137" s="16"/>
@@ -3355,7 +3157,7 @@
       <c r="I137" s="9"/>
       <c r="J137" s="1"/>
     </row>
-    <row r="138" ht="13">
+    <row r="138" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A138" s="15"/>
       <c r="B138" s="16"/>
       <c r="C138" s="16"/>
@@ -3367,7 +3169,7 @@
       <c r="I138" s="9"/>
       <c r="J138" s="1"/>
     </row>
-    <row r="139" ht="13">
+    <row r="139" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A139" s="15"/>
       <c r="B139" s="16"/>
       <c r="C139" s="16"/>
@@ -3379,7 +3181,7 @@
       <c r="I139" s="9"/>
       <c r="J139" s="1"/>
     </row>
-    <row r="140" ht="13">
+    <row r="140" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A140" s="15"/>
       <c r="B140" s="16"/>
       <c r="C140" s="16"/>
@@ -3391,7 +3193,7 @@
       <c r="I140" s="9"/>
       <c r="J140" s="1"/>
     </row>
-    <row r="141" ht="13">
+    <row r="141" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A141" s="15"/>
       <c r="B141" s="16"/>
       <c r="C141" s="16"/>
@@ -3403,7 +3205,7 @@
       <c r="I141" s="9"/>
       <c r="J141" s="1"/>
     </row>
-    <row r="142" ht="13">
+    <row r="142" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A142" s="15"/>
       <c r="B142" s="16"/>
       <c r="C142" s="16"/>
@@ -3415,7 +3217,7 @@
       <c r="I142" s="9"/>
       <c r="J142" s="1"/>
     </row>
-    <row r="143" ht="13">
+    <row r="143" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A143" s="15"/>
       <c r="B143" s="16"/>
       <c r="C143" s="16"/>
@@ -3427,7 +3229,7 @@
       <c r="I143" s="9"/>
       <c r="J143" s="1"/>
     </row>
-    <row r="144" ht="13">
+    <row r="144" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A144" s="15"/>
       <c r="B144" s="16"/>
       <c r="C144" s="16"/>
@@ -3439,7 +3241,7 @@
       <c r="I144" s="9"/>
       <c r="J144" s="1"/>
     </row>
-    <row r="145" ht="13">
+    <row r="145" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A145" s="15"/>
       <c r="B145" s="16"/>
       <c r="C145" s="16"/>
@@ -3451,7 +3253,7 @@
       <c r="I145" s="9"/>
       <c r="J145" s="1"/>
     </row>
-    <row r="146" ht="13">
+    <row r="146" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A146" s="15"/>
       <c r="B146" s="16"/>
       <c r="C146" s="16"/>
@@ -3463,7 +3265,7 @@
       <c r="I146" s="9"/>
       <c r="J146" s="1"/>
     </row>
-    <row r="147" ht="13">
+    <row r="147" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A147" s="15"/>
       <c r="B147" s="16"/>
       <c r="C147" s="16"/>
@@ -3475,7 +3277,7 @@
       <c r="I147" s="9"/>
       <c r="J147" s="1"/>
     </row>
-    <row r="148" ht="13">
+    <row r="148" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A148" s="15"/>
       <c r="B148" s="16"/>
       <c r="C148" s="16"/>
@@ -3487,7 +3289,7 @@
       <c r="I148" s="9"/>
       <c r="J148" s="1"/>
     </row>
-    <row r="149" ht="13">
+    <row r="149" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A149" s="15"/>
       <c r="B149" s="16"/>
       <c r="C149" s="16"/>
@@ -3499,7 +3301,7 @@
       <c r="I149" s="9"/>
       <c r="J149" s="1"/>
     </row>
-    <row r="150" ht="13">
+    <row r="150" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A150" s="15"/>
       <c r="B150" s="16"/>
       <c r="C150" s="16"/>
@@ -3511,7 +3313,7 @@
       <c r="I150" s="9"/>
       <c r="J150" s="1"/>
     </row>
-    <row r="151" ht="13">
+    <row r="151" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A151" s="15"/>
       <c r="B151" s="16"/>
       <c r="C151" s="16"/>
@@ -3523,7 +3325,7 @@
       <c r="I151" s="9"/>
       <c r="J151" s="1"/>
     </row>
-    <row r="152" ht="13">
+    <row r="152" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A152" s="15"/>
       <c r="B152" s="16"/>
       <c r="C152" s="16"/>
@@ -3535,7 +3337,7 @@
       <c r="I152" s="9"/>
       <c r="J152" s="1"/>
     </row>
-    <row r="153" ht="13">
+    <row r="153" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A153" s="15"/>
       <c r="B153" s="16"/>
       <c r="C153" s="16"/>
@@ -3547,7 +3349,7 @@
       <c r="I153" s="9"/>
       <c r="J153" s="1"/>
     </row>
-    <row r="154" ht="13">
+    <row r="154" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A154" s="15"/>
       <c r="B154" s="16"/>
       <c r="C154" s="16"/>
@@ -3559,7 +3361,7 @@
       <c r="I154" s="9"/>
       <c r="J154" s="1"/>
     </row>
-    <row r="155" ht="13">
+    <row r="155" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A155" s="15"/>
       <c r="B155" s="16"/>
       <c r="C155" s="16"/>
@@ -3571,7 +3373,7 @@
       <c r="I155" s="9"/>
       <c r="J155" s="1"/>
     </row>
-    <row r="156" ht="13">
+    <row r="156" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A156" s="15"/>
       <c r="B156" s="16"/>
       <c r="C156" s="16"/>
@@ -3583,7 +3385,7 @@
       <c r="I156" s="9"/>
       <c r="J156" s="1"/>
     </row>
-    <row r="157" ht="13">
+    <row r="157" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A157" s="15"/>
       <c r="B157" s="16"/>
       <c r="C157" s="16"/>
@@ -3595,7 +3397,7 @@
       <c r="I157" s="9"/>
       <c r="J157" s="1"/>
     </row>
-    <row r="158" ht="13">
+    <row r="158" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A158" s="15"/>
       <c r="B158" s="16"/>
       <c r="C158" s="16"/>
@@ -3607,7 +3409,7 @@
       <c r="I158" s="34"/>
       <c r="J158" s="1"/>
     </row>
-    <row r="159" ht="13">
+    <row r="159" spans="1:10" ht="13" x14ac:dyDescent="0.25">
       <c r="A159" s="15"/>
       <c r="B159" s="16"/>
       <c r="C159" s="16"/>
@@ -3619,13 +3421,13 @@
       <c r="I159" s="10"/>
       <c r="J159" s="1"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="15"/>
       <c r="B160" s="16"/>
       <c r="D160" s="17"/>
       <c r="J160" s="35"/>
     </row>
-    <row r="161" ht="12.75" customHeight="1">
+    <row r="161" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="15"/>
       <c r="B161" s="16"/>
       <c r="D161" s="17"/>
@@ -3634,162 +3436,162 @@
       </c>
       <c r="J161" s="2"/>
     </row>
-    <row r="162" hidden="1">
+    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="15"/>
       <c r="B162" s="16"/>
       <c r="D162" s="17"/>
       <c r="I162" s="6" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J162" s="11"/>
       <c r="K162" s="6"/>
     </row>
-    <row r="163" hidden="1">
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="15"/>
       <c r="B163" s="16"/>
       <c r="D163" s="17"/>
       <c r="I163" s="6" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J163" s="11" t="s">
         <v>10</v>
       </c>
       <c r="K163" s="6"/>
     </row>
-    <row r="164" hidden="1">
+    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="15"/>
       <c r="B164" s="16"/>
       <c r="D164" s="17"/>
       <c r="I164" s="6" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="J164" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="165" hidden="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="15"/>
       <c r="B165" s="16"/>
       <c r="D165" s="17"/>
       <c r="I165" s="6" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="J165" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="166" hidden="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="15"/>
       <c r="B166" s="16"/>
       <c r="D166" s="17"/>
       <c r="I166" s="6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J166" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="167" hidden="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="20"/>
       <c r="B167" s="16"/>
       <c r="D167" s="17"/>
       <c r="I167" s="6" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="J167" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="168" hidden="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="15"/>
       <c r="B168" s="16"/>
       <c r="D168" s="17"/>
       <c r="I168" s="6" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J168" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="169" hidden="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="15"/>
       <c r="B169" s="16"/>
       <c r="D169" s="17"/>
       <c r="I169" s="6" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="J169" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="170" hidden="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="15"/>
       <c r="B170" s="16"/>
       <c r="D170" s="17"/>
       <c r="I170" s="6" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="J170" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="171" hidden="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="20"/>
       <c r="B171" s="16"/>
       <c r="D171" s="17"/>
       <c r="I171" s="6" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J171" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="172" hidden="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="36"/>
       <c r="B172" s="16"/>
       <c r="D172" s="17"/>
       <c r="I172" s="6" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="J172" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="173" hidden="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B173" s="16"/>
       <c r="D173" s="17"/>
       <c r="J173" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="174" hidden="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B174" s="16"/>
       <c r="D174" s="17"/>
       <c r="I174" s="6" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="J174" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="175" hidden="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B175" s="16"/>
       <c r="D175" s="17"/>
       <c r="I175" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="176" hidden="1">
+    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="B176" s="16"/>
       <c r="D176" s="17"/>
       <c r="I176" s="6">
         <v>2</v>
       </c>
       <c r="J176" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="177" hidden="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="177" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B177" s="16"/>
       <c r="D177" s="30"/>
       <c r="I177" s="6">
@@ -3799,7 +3601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" hidden="1">
+    <row r="178" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B178" s="16"/>
       <c r="D178" s="21"/>
       <c r="I178" s="6">
@@ -3809,7 +3611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" hidden="1">
+    <row r="179" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="B179" s="16"/>
       <c r="I179" s="6">
         <v>5</v>
@@ -3818,7 +3620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="180" hidden="1">
+    <row r="180" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="I180" s="6">
         <v>6</v>
       </c>
@@ -3826,7 +3628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="181" hidden="1">
+    <row r="181" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="I181" s="6">
         <v>7</v>
       </c>
@@ -3834,7 +3636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" hidden="1">
+    <row r="182" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="I182" s="6">
         <v>8</v>
       </c>
@@ -3842,7 +3644,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183" hidden="1">
+    <row r="183" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="I183" s="6">
         <v>9</v>
       </c>
@@ -3850,7 +3652,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184" hidden="1">
+    <row r="184" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="I184" s="6">
         <v>10</v>
       </c>
@@ -3858,7 +3660,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185" hidden="1">
+    <row r="185" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="I185" s="6">
         <v>11</v>
       </c>
@@ -3866,7 +3668,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="186" hidden="1">
+    <row r="186" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="I186" s="6">
         <v>12</v>
       </c>
@@ -3874,7 +3676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="187" hidden="1">
+    <row r="187" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="I187" s="6">
         <v>13</v>
       </c>
@@ -3882,7 +3684,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="188" hidden="1">
+    <row r="188" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="I188" s="6">
         <v>14</v>
       </c>
@@ -3890,7 +3692,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="189" hidden="1">
+    <row r="189" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="I189" s="6">
         <v>15</v>
       </c>
@@ -3898,7 +3700,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="190" hidden="1">
+    <row r="190" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="I190" s="6">
         <v>16</v>
       </c>
@@ -3906,7 +3708,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="191" hidden="1">
+    <row r="191" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="I191" s="6">
         <v>17</v>
       </c>
@@ -3914,7 +3716,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="192" hidden="1">
+    <row r="192" spans="2:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="I192" s="6">
         <v>18</v>
       </c>
@@ -3922,7 +3724,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="193" hidden="1">
+    <row r="193" spans="9:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="I193" s="6">
         <v>19</v>
       </c>
@@ -3930,7 +3732,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="194" hidden="1">
+    <row r="194" spans="9:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="I194" s="6">
         <v>20</v>
       </c>
@@ -3938,7 +3740,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="195" hidden="1">
+    <row r="195" spans="9:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="I195" s="6">
         <v>21</v>
       </c>
@@ -3946,7 +3748,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="196" hidden="1">
+    <row r="196" spans="9:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="I196" s="6">
         <v>22</v>
       </c>
@@ -3954,7 +3756,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="197" hidden="1">
+    <row r="197" spans="9:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="I197" s="6">
         <v>23</v>
       </c>
@@ -3962,7 +3764,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="198" hidden="1">
+    <row r="198" spans="9:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="I198" s="6">
         <v>24</v>
       </c>
@@ -3970,7 +3772,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="199" hidden="1">
+    <row r="199" spans="9:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="I199" s="6">
         <v>25</v>
       </c>
@@ -3978,7 +3780,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="200" hidden="1">
+    <row r="200" spans="9:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="I200" s="6">
         <v>26</v>
       </c>
@@ -3986,7 +3788,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="201" hidden="1">
+    <row r="201" spans="9:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="I201" s="6">
         <v>27</v>
       </c>
@@ -3994,7 +3796,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="202" hidden="1">
+    <row r="202" spans="9:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="I202" s="6">
         <v>28</v>
       </c>
@@ -4002,7 +3804,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="203" hidden="1">
+    <row r="203" spans="9:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="I203" s="6">
         <v>29</v>
       </c>
@@ -4010,7 +3812,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="204" hidden="1">
+    <row r="204" spans="9:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="I204" s="6">
         <v>30</v>
       </c>
@@ -4018,7 +3820,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="205" hidden="1">
+    <row r="205" spans="9:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="I205" s="6">
         <v>31</v>
       </c>
@@ -4026,12 +3828,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="206" hidden="1">
+    <row r="206" spans="9:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="J206" s="6">
         <v>30</v>
       </c>
     </row>
-    <row r="207" hidden="1">
+    <row r="207" spans="9:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="I207" s="6" t="s">
         <v>2</v>
       </c>
@@ -4039,12 +3841,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="208" hidden="1">
+    <row r="208" spans="9:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="I208" s="6">
         <v>2017</v>
       </c>
     </row>
-    <row r="209" hidden="1">
+    <row r="209" spans="9:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="I209" s="6">
         <v>2018</v>
       </c>
@@ -4052,7 +3854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" hidden="1">
+    <row r="210" spans="9:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="I210" s="6">
         <v>2019</v>
       </c>
@@ -4060,7 +3862,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="211" hidden="1">
+    <row r="211" spans="9:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="I211" s="6">
         <v>2020</v>
       </c>
@@ -4068,158 +3870,158 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="212" hidden="1">
+    <row r="212" spans="9:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="I212" s="11" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="J212" s="6">
         <v>2019</v>
       </c>
     </row>
-    <row r="213" hidden="1">
+    <row r="213" spans="9:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="I213" s="11" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="J213" s="6">
         <v>2020</v>
       </c>
     </row>
-    <row r="214" hidden="1">
+    <row r="214" spans="9:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="I214" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J214" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="215" spans="9:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I215" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J215" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="216" spans="9:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I216" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J216" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="217" spans="9:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I217" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J217" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="218" spans="9:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I218" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J218" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="219" spans="9:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I219" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J219" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="220" spans="9:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I220" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J220" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="221" spans="9:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I221" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J214" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="215" hidden="1">
-      <c r="I215" s="11" t="s">
+      <c r="J221" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="J215" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="216" hidden="1">
-      <c r="I216" s="6" t="s">
+    </row>
+    <row r="222" spans="9:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I222" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="J216" s="11" t="s">
+      <c r="J222" s="27" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="217" hidden="1">
-      <c r="I217" s="6" t="s">
+    <row r="223" spans="9:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I223" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="J217" s="6" t="s">
+      <c r="J223" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="218" hidden="1">
-      <c r="I218" s="6" t="s">
+    <row r="224" spans="9:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I224" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J218" s="6" t="s">
+      <c r="J224" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="219" hidden="1">
-      <c r="I219" s="6" t="s">
+    <row r="225" spans="9:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I225" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="J219" s="11" t="s">
+      <c r="J225" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="220" hidden="1">
-      <c r="I220" s="6" t="s">
+    <row r="226" spans="9:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I226" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="J220" s="11" t="s">
+      <c r="J226" s="28" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="221" hidden="1">
-      <c r="I221" s="6" t="s">
+    <row r="227" spans="9:10" ht="25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I227" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J221" s="11" t="s">
+      <c r="J227" s="28" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="222" hidden="1">
-      <c r="I222" s="6" t="s">
+    <row r="228" spans="9:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J228" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="J222" s="27" t="s">
+    </row>
+    <row r="229" spans="9:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J229" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="223" hidden="1">
-      <c r="I223" s="6" t="s">
+    <row r="230" spans="9:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J230" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="J223" s="11" t="s">
+    </row>
+    <row r="231" spans="9:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="J231" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="224" hidden="1">
-      <c r="I224" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="J224" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="225" hidden="1">
-      <c r="I225" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J225" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="226" hidden="1">
-      <c r="I226" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J226" s="28" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="227" hidden="1" ht="25">
-      <c r="I227" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J227" s="28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="228" hidden="1">
-      <c r="J228" s="28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="229" hidden="1">
-      <c r="J229" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="230" hidden="1">
-      <c r="J230" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="231" hidden="1">
-      <c r="J231" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="595">
+    <row r="595" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H595" s="41"/>
     </row>
-    <row r="596">
+    <row r="596" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C596" s="41"/>
       <c r="D596" s="44"/>
       <c r="E596" s="41"/>
@@ -4228,7 +4030,7 @@
       <c r="H596" s="45"/>
       <c r="I596" s="41"/>
     </row>
-    <row r="597" ht="13">
+    <row r="597" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="B597" s="44"/>
       <c r="C597" s="45"/>
       <c r="D597" s="44"/>
@@ -4238,7 +4040,7 @@
       <c r="H597" s="45"/>
       <c r="I597" s="43"/>
     </row>
-    <row r="598" ht="13">
+    <row r="598" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="B598" s="44"/>
       <c r="C598" s="45"/>
       <c r="D598" s="44"/>
@@ -4249,7 +4051,7 @@
       <c r="I598" s="43"/>
       <c r="J598" s="41"/>
     </row>
-    <row r="599" ht="13">
+    <row r="599" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="B599" s="44"/>
       <c r="C599" s="45"/>
       <c r="D599" s="44"/>
@@ -4260,7 +4062,7 @@
       <c r="I599" s="43"/>
       <c r="J599" s="45"/>
     </row>
-    <row r="600" ht="13">
+    <row r="600" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="B600" s="44"/>
       <c r="C600" s="45"/>
       <c r="D600" s="44"/>
@@ -4271,7 +4073,7 @@
       <c r="I600" s="43"/>
       <c r="J600" s="40"/>
     </row>
-    <row r="601" ht="13">
+    <row r="601" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="B601" s="44"/>
       <c r="C601" s="45"/>
       <c r="D601" s="44"/>
@@ -4283,7 +4085,7 @@
       <c r="J601" s="45"/>
       <c r="L601" s="42"/>
     </row>
-    <row r="602" ht="13">
+    <row r="602" spans="1:12" ht="13" x14ac:dyDescent="0.25">
       <c r="B602" s="44"/>
       <c r="C602" s="45"/>
       <c r="D602" s="44"/>
@@ -4295,75 +4097,75 @@
       <c r="J602" s="45"/>
       <c r="L602" s="42"/>
     </row>
-    <row r="603">
+    <row r="603" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J603" s="45"/>
       <c r="L603" s="42"/>
     </row>
-    <row r="604">
+    <row r="604" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I604" s="44"/>
       <c r="J604" s="40"/>
       <c r="L604" s="42"/>
     </row>
-    <row r="608">
+    <row r="608" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A608" s="41"/>
     </row>
-    <row r="609">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A609" s="51"/>
     </row>
-    <row r="610">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A610" s="51"/>
     </row>
-    <row r="611">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A611" s="51"/>
     </row>
-    <row r="612">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A612" s="51"/>
     </row>
-    <row r="613">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A613" s="51"/>
     </row>
-    <row r="614">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A614" s="51"/>
     </row>
-    <row r="615">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D615" s="41"/>
     </row>
-    <row r="616">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B616" s="41"/>
       <c r="C616" s="44"/>
       <c r="D616" s="52"/>
     </row>
-    <row r="617">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A617" s="44"/>
       <c r="B617" s="45"/>
       <c r="C617" s="44"/>
       <c r="D617" s="52"/>
     </row>
-    <row r="618">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A618" s="44"/>
       <c r="B618" s="45"/>
       <c r="C618" s="44"/>
       <c r="D618" s="52"/>
     </row>
-    <row r="619">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A619" s="44"/>
       <c r="B619" s="45"/>
       <c r="C619" s="44"/>
       <c r="D619" s="52"/>
     </row>
-    <row r="620">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A620" s="44"/>
       <c r="B620" s="45"/>
       <c r="C620" s="44"/>
       <c r="D620" s="52"/>
     </row>
-    <row r="621">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A621" s="44"/>
       <c r="B621" s="45"/>
       <c r="C621" s="44"/>
       <c r="D621" s="52"/>
     </row>
-    <row r="622">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A622" s="44"/>
       <c r="B622" s="45"/>
     </row>
